--- a/bots/crawl_ch/output/vegi_coop_2023-02-17.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-17.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2878,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -2943,7 +2943,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3349,7 +3349,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3414,7 +3414,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3548,7 +3548,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3617,7 +3617,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3893,7 +3893,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4165,7 +4165,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4230,7 +4230,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4352,7 +4352,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6138,7 +6138,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6203,7 +6203,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6755,7 +6755,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8052,31 +8052,31 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3462288</t>
+          <t>3700909</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Prix Garantie Äpfel</t>
+          <t>Betty Bossi Fairtrade Ananas Würfel</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/prix-garantie-aepfel/p/3462288</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-ananas-wuerfel/p/3700909</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E114" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
@@ -8085,67 +8085,71 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1.58/1kg</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>Prix Garantie Äpfel 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N114" t="inlineStr"/>
+          <t>Betty Bossi Fairtrade Ananas Würfel 5.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>3700909</t>
+          <t>3462288</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Ananas Würfel</t>
+          <t>Prix Garantie Äpfel</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-ananas-wuerfel/p/3700909</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/prix-garantie-aepfel/p/3462288</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E115" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -8154,47 +8158,43 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>1.58/1kg</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Ananas Würfel 5.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Äpfel 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8884,7 +8884,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9148,7 +9148,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9217,7 +9217,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9351,7 +9351,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9493,7 +9493,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9765,7 +9765,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10027,45 +10027,41 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>7018541</t>
+          <t>7055411</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffeln rote Linie</t>
+          <t>Äpfel Gala Victor IP-Suisse ca. 1kg</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-kartoffeln-rote-linie/p/7018541</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-gala-victor-ip-suisse-ca/p/7055411</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>4</v>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>2.80/1kg</t>
+          <t>3.90/1kg</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -10075,7 +10071,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -10085,42 +10081,42 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffeln rote Linie 2.80 Schweizer Franken</t>
+          <t>Äpfel Gala Victor IP-Suisse ca. 1kg 25% Aktion 3.90 Schweizer Franken statt 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3388951</t>
+          <t>7018541</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht</t>
+          <t>Naturaplan Bio Kartoffeln rote Linie</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-sauerkraut-gekocht/p/3388951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-kartoffeln-rote-linie/p/7018541</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E144" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -10129,68 +10125,64 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.80/1kg</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht 2.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kartoffeln rote Linie 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>6377057</t>
+          <t>3388951</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade Datteln</t>
+          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/naturaplan-bio-fairtrade-datteln/p/6377057</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-sauerkraut-gekocht/p/3388951</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="E145" t="n">
         <v>4.5</v>
@@ -10202,12 +10194,12 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
@@ -10217,7 +10209,7 @@
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -10227,39 +10219,43 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Fairtrade Datteln 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr"/>
+          <t>Betty Bossi Naturaplan Bio Sauerkraut gekocht 2.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>7018544</t>
+          <t>6377057</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffeln blaue Linie</t>
+          <t>Naturaplan Bio Fairtrade Datteln</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-kartoffeln-blaue-linie/p/7018544</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/naturaplan-bio-fairtrade-datteln/p/6377057</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E146" t="n">
         <v>4.5</v>
@@ -10271,77 +10267,81 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>2.80/1kg</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kartoffeln blaue Linie 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Fairtrade Datteln 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>7055411</t>
+          <t>7018544</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Äpfel Gala Victor IP-Suisse ca. 1kg</t>
+          <t>Naturaplan Bio Kartoffeln blaue Linie</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-gala-victor-ip-suisse-ca/p/7055411</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-bio-kartoffeln-blaue-linie/p/7018544</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E147" t="n">
-        <v>5</v>
-      </c>
-      <c r="F147" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>3.90/1kg</t>
+          <t>2.80/1kg</t>
         </is>
       </c>
       <c r="I147" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="K147" t="inlineStr">
@@ -10361,18 +10361,18 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>Äpfel Gala Victor IP-Suisse ca. 1kg 25% Aktion 3.90 Schweizer Franken statt 5.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Kartoffeln blaue Linie 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10445,7 +10445,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10579,7 +10579,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10648,7 +10648,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10782,7 +10782,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10855,7 +10855,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10922,7 +10922,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -10987,7 +10987,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11052,7 +11052,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11117,7 +11117,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11186,7 +11186,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11255,7 +11255,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11324,7 +11324,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11535,7 +11535,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11669,7 +11669,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11738,7 +11738,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11807,7 +11807,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11876,7 +11876,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11941,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12010,7 +12010,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12079,7 +12079,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12144,7 +12144,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12290,7 +12290,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12339,7 +12339,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12408,7 +12408,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12550,7 +12550,7 @@
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12623,7 +12623,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12692,7 +12692,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12761,7 +12761,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12834,7 +12834,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -12966,7 +12966,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13035,7 +13035,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13100,7 +13100,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13169,7 +13169,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13242,7 +13242,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13307,7 +13307,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13376,7 +13376,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13445,7 +13445,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13587,7 +13587,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13652,7 +13652,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13794,7 +13794,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13867,7 +13867,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -13938,7 +13938,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14011,7 +14011,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14080,7 +14080,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14360,7 +14360,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14423,7 +14423,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14496,7 +14496,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14638,7 +14638,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14707,7 +14707,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14780,7 +14780,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14853,7 +14853,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14926,7 +14926,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15064,7 +15064,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15356,7 +15356,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15425,7 +15425,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15555,7 +15555,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15624,7 +15624,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15693,7 +15693,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15762,7 +15762,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15835,7 +15835,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15904,7 +15904,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -15967,7 +15967,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16034,7 +16034,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16107,7 +16107,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16172,7 +16172,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16241,7 +16241,7 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16314,45 +16314,41 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>5997372</t>
+          <t>7003348</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Délicorn vegan Gehacktes</t>
+          <t>Spargel Broccoli Bimi</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-vegan-gehacktes/p/5997372</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/spargel-broccoli-bimi/p/7003348</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E234" t="n">
         <v>4.5</v>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F234" t="inlineStr"/>
       <c r="G234" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.96/100g</t>
+          <t>1.48/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -16362,7 +16358,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -16372,168 +16368,168 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Délicorn vegan Gehacktes 4.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargel Broccoli Bimi 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>6020083</t>
+          <t>5997372</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Primagusto Nüsslisalat</t>
+          <t>Délicorn vegan Gehacktes</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/primagusto-nuesslisalat/p/6020083</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/delicorn-vegan-gehacktes/p/5997372</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="E235" t="n">
         <v>4.5</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>1.96/100g</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr">
+        <is>
+          <t>Preis pro 100 Gramm</t>
+        </is>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>100g</t>
+        </is>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M235" t="inlineStr">
         <is>
-          <t>Primagusto Nüsslisalat 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N235" t="inlineStr"/>
+          <t>Délicorn vegan Gehacktes 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>6865547</t>
+          <t>6020083</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Tomaten Yoom</t>
+          <t>Primagusto Nüsslisalat</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-yoom/p/6865547</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/primagusto-nuesslisalat/p/6020083</t>
         </is>
       </c>
       <c r="D236" t="n">
         <v>3</v>
       </c>
       <c r="E236" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>1.58/100g</t>
-        </is>
-      </c>
-      <c r="I236" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
         <is>
-          <t>Tomaten Yoom 3.95 Schweizer Franken</t>
+          <t>Primagusto Nüsslisalat 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>3625035</t>
+          <t>6865547</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sauerkraut roh mit Wacholder</t>
+          <t>Tomaten Yoom</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-sauerkraut-roh-mit-wacholder/p/3625035</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/tomaten-yoom/p/6865547</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E237" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -16542,12 +16538,12 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>0.49/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
@@ -16557,7 +16553,7 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
@@ -16567,46 +16563,42 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Sauerkraut roh mit Wacholder 2.45 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Tomaten Yoom 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>6303848</t>
+          <t>3625035</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Betty Bossi Cindarella Salat</t>
+          <t>Betty Bossi Naturaplan Bio Sauerkraut roh mit Wacholder</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cindarella-salat/p/6303848</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-naturaplan-bio-sauerkraut-roh-mit-wacholder/p/3625035</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E238" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -16615,12 +16607,12 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>1.36/100g</t>
+          <t>0.49/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -16630,7 +16622,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -16640,12 +16632,12 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Betty Bossi Cindarella Salat 3.40 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Sauerkraut roh mit Wacholder 2.45 Schweizer Franken</t>
         </is>
       </c>
       <c r="N238" t="inlineStr">
@@ -16655,28 +16647,28 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>3091258</t>
+          <t>6303848</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück</t>
+          <t>Betty Bossi Cindarella Salat</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck/p/3091258</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-cindarella-salat/p/6303848</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E239" t="n">
         <v>4.5</v>
@@ -16688,69 +16680,77 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>1.36/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Batavia-Salat 1 Stück 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr"/>
+          <t>Betty Bossi Cindarella Salat 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>7003348</t>
+          <t>3091258</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Spargel Broccoli Bimi</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/spargel-broccoli-bimi/p/7003348</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/naturaplan-bio-batavia-salat-1-stueck/p/3091258</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E240" t="n">
         <v>4.5</v>
       </c>
-      <c r="F240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G240" t="inlineStr">
         <is>
           <t>2.95</t>
@@ -16758,38 +16758,38 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>1.48/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>1.48</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
         <is>
-          <t>Spargel Broccoli Bimi 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Batavia-Salat 1 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16858,7 +16858,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -16931,7 +16931,7 @@
       </c>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17000,7 +17000,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17069,7 +17069,7 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17138,7 +17138,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17211,7 +17211,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17280,7 +17280,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17345,7 +17345,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17564,7 +17564,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -17631,45 +17631,39 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>3385979</t>
+          <t>7043951</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat</t>
+          <t>Saucenzwiebeln IP-Suisse</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
-        </is>
-      </c>
-      <c r="D253" t="n">
-        <v>12</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/saucenzwiebeln-ip-suisse/p/7043951</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr"/>
       <c r="E253" t="n">
-        <v>5</v>
-      </c>
-      <c r="F253" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>0.28/100g</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -17679,7 +17673,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -17689,54 +17683,56 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mischsalat 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N253" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Saucenzwiebeln IP-Suisse 1.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>7043951</t>
+          <t>3385979</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Saucenzwiebeln IP-Suisse</t>
+          <t>Naturaplan Bio Mischsalat</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/saucenzwiebeln-ip-suisse/p/7043951</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/naturaplan-bio-mischsalat/p/3385979</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>12</v>
+      </c>
       <c r="E254" t="n">
-        <v>0</v>
-      </c>
-      <c r="F254" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>0.28/100g</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
@@ -17746,7 +17742,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -17756,123 +17752,123 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
         <is>
-          <t>Saucenzwiebeln IP-Suisse 1.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N254" t="inlineStr"/>
+          <t>Naturaplan Bio Mischsalat 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>6714133</t>
+          <t>6293683</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi</t>
+          <t>Artischocke 1 Stück</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>7</v>
+      </c>
       <c r="E255" t="n">
-        <v>0</v>
-      </c>
-      <c r="F255" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F255" t="inlineStr"/>
       <c r="G255" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>0.72/100g</t>
+          <t>1.75/1ST</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kiwi 3.60 Schweizer Franken</t>
+          <t>Artischocke 1 Stück 1.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>6703995</t>
+          <t>6714133</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Planted pulled BBQ</t>
+          <t>Naturaplan Bio Kiwi</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-pulled-bbq/p/6703995</t>
-        </is>
-      </c>
-      <c r="D256" t="n">
-        <v>27</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/kiwis-melonen/naturaplan-bio-kiwi/p/6714133</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr"/>
       <c r="E256" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>0.72/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -17882,7 +17878,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -17892,87 +17888,91 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'kiwis-melonen']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Planted pulled BBQ 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N256" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kiwi 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6293683</t>
+          <t>6703995</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück</t>
+          <t>Planted pulled BBQ</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/blattgemuese-artischocken/artischocke-1-stueck/p/6293683</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-pulled-bbq/p/6703995</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E257" t="n">
         <v>4.5</v>
       </c>
-      <c r="F257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>Planted</t>
+        </is>
+      </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.75/1ST</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'blattgemuese-artischocken']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Artischocke 1 Stück 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N257" t="inlineStr"/>
+          <t>Planted pulled BBQ 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18045,7 +18045,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18114,7 +18114,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18252,7 +18252,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18394,7 +18394,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18467,7 +18467,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18540,7 +18540,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18613,7 +18613,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18682,7 +18682,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18747,7 +18747,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18812,7 +18812,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18877,7 +18877,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -18942,7 +18942,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19015,7 +19015,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19088,7 +19088,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19230,7 +19230,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19299,7 +19299,7 @@
       <c r="N276" t="inlineStr"/>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19445,7 +19445,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19514,7 +19514,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19581,7 +19581,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19650,7 +19650,7 @@
       </c>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19723,7 +19723,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19792,7 +19792,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19865,7 +19865,7 @@
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19930,7 +19930,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -19995,7 +19995,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20064,7 +20064,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20127,7 +20127,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20196,7 +20196,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20269,7 +20269,7 @@
       </c>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20342,7 +20342,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20409,7 +20409,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20474,7 +20474,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20547,7 +20547,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20616,7 +20616,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20689,7 +20689,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20754,7 +20754,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -20965,7 +20965,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21038,7 +21038,7 @@
       </c>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21107,7 +21107,7 @@
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21180,7 +21180,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21249,7 +21249,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21314,7 +21314,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21387,7 +21387,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21452,7 +21452,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21525,7 +21525,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21598,7 +21598,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21671,7 +21671,7 @@
       </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21740,7 +21740,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21813,7 +21813,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21886,7 +21886,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -21951,7 +21951,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22020,7 +22020,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22093,7 +22093,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22166,7 +22166,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22304,7 +22304,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22377,169 +22377,169 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6569894</t>
+          <t>7029986</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Apfel des Monats Pink Lady</t>
+          <t>Outlawz Food Trockenfleisch vegan</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/apfel-des-monats-pink-lady/p/6569894</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-trockenfleisch-vegan/p/7029986</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E321" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F321" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>OUTLAWZ Food</t>
+        </is>
+      </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>3.70/1ST</t>
+          <t>8.25/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Apfel des Monats Pink Lady 3.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N321" t="inlineStr"/>
+          <t>Outlawz Food Trockenfleisch vegan 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6649018</t>
+          <t>6569894</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel</t>
+          <t>Apfel des Monats Pink Lady</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-quinoa-suesskartoffel/p/6649018</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/apfel-des-monats-pink-lady/p/6569894</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E322" t="n">
-        <v>3</v>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2.89/100g</t>
+          <t>3.70/1ST</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L322" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel 5.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Apfel des Monats Pink Lady 3.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>6638721</t>
+          <t>6649018</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Betty Bossi Wurst-Käsesalat</t>
+          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-wurst-kaesesalat/p/6638721</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-quinoa-suesskartoffel/p/6649018</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E323" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F323" t="inlineStr">
         <is>
@@ -22548,12 +22548,12 @@
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>2.89/100g</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -22563,7 +22563,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -22578,55 +22578,55 @@
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>Betty Bossi Wurst-Käsesalat 5.60 Schweizer Franken</t>
+          <t>Naturaplan Bio Quinoa &amp;amp; Süsskartoffel 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N323" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>7029986</t>
+          <t>6638721</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Outlawz Food Trockenfleisch vegan</t>
+          <t>Betty Bossi Wurst-Käsesalat</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-trockenfleisch-vegan/p/7029986</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-wurst-kaesesalat/p/6638721</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E324" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>8.25/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -22636,7 +22636,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -22646,22 +22646,22 @@
       </c>
       <c r="L324" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M324" t="inlineStr">
         <is>
-          <t>Outlawz Food Trockenfleisch vegan 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Wurst-Käsesalat 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N324" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22734,7 +22734,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -22807,45 +22807,45 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>6810662</t>
+          <t>6143544</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Red Pepper</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-red-pepper/p/6810662</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-betty-bossi-kuerbis-wuerfel-hokkaido/p/6143544</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E327" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.70</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>4.00/100g</t>
+          <t>1.43/100g</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -22855,7 +22855,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -22865,60 +22865,60 @@
       </c>
       <c r="L327" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M327" t="inlineStr">
         <is>
-          <t>Yolo Cold Slices Red Pepper 3.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N327" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>6143544</t>
+          <t>6810662</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido</t>
+          <t>Yolo Cold Slices Red Pepper</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/naturaplan-bio-betty-bossi-kuerbis-wuerfel-hokkaido/p/6143544</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-slices-red-pepper/p/6810662</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E328" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>1.43/100g</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
@@ -22928,7 +22928,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -22938,22 +22938,22 @@
       </c>
       <c r="L328" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M328" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Betty Bossi Kürbis-Würfel Hokkaido 5.70 Schweizer Franken</t>
+          <t>Yolo Cold Slices Red Pepper 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N328" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23026,7 +23026,7 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23099,7 +23099,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23172,7 +23172,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23245,7 +23245,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23318,7 +23318,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23383,283 +23383,283 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>4922285</t>
+          <t>6781641</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Primagusto Mandarinen ca. 1kg</t>
+          <t>Beyond Hackbällchen</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-mandarinen-ca/p/4922285</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
         </is>
       </c>
       <c r="D335" t="n">
         <v>7</v>
       </c>
       <c r="E335" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Primagusto</t>
+          <t>BEYOND MEAT</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>4.95/1kg</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L335" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>Primagusto Mandarinen ca. 1kg 10x Superpunkte Aktion 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N335" t="inlineStr"/>
+          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6892315</t>
+          <t>4922285</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Rosenkohl gerüstet</t>
+          <t>Primagusto Mandarinen ca. 1kg</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/rosenkohl-geruestet/p/6892315</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/primagusto-mandarinen-ca/p/4922285</t>
         </is>
       </c>
       <c r="D336" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E336" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Primagusto</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>4.95/1kg</t>
         </is>
       </c>
       <c r="I336" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J336" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L336" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>Rosenkohl gerüstet 2.95 Schweizer Franken</t>
+          <t>Primagusto Mandarinen ca. 1kg 10x Superpunkte Aktion 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N336" t="inlineStr"/>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>3090881</t>
+          <t>6892315</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Boden Kohlrabi ca. 1kg</t>
+          <t>Rosenkohl gerüstet</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/boden-kohlrabi-ca/p/3090881</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/rosenkohl-kabis/rosenkohl-geruestet/p/6892315</t>
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E337" t="n">
-        <v>4</v>
-      </c>
-      <c r="F337" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>3.95/1kg</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L337" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'rosenkohl-kabis']</t>
         </is>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>Boden Kohlrabi ca. 1kg 3.95 Schweizer Franken</t>
+          <t>Rosenkohl gerüstet 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>6781641</t>
+          <t>3090881</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen</t>
+          <t>Boden Kohlrabi ca. 1kg</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/beyond-hackbaellchen/p/6781641</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/sellerie-kohlrabi/boden-kohlrabi-ca/p/3090881</t>
         </is>
       </c>
       <c r="D338" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E338" t="n">
         <v>4</v>
       </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>BEYOND MEAT</t>
-        </is>
-      </c>
+      <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>3.95/1kg</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K338" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L338" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'sellerie-kohlrabi']</t>
         </is>
       </c>
       <c r="M338" t="inlineStr">
         <is>
-          <t>Beyond Hackbällchen 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N338" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Boden Kohlrabi ca. 1kg 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23726,7 +23726,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23799,7 +23799,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23868,7 +23868,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -23937,7 +23937,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24010,7 +24010,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24063,7 +24063,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24136,7 +24136,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24209,7 +24209,7 @@
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24282,7 +24282,7 @@
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24347,7 +24347,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24420,45 +24420,45 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>6816542</t>
+          <t>6862503</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Outlawz Food pflanzlicher Speck Tranchen</t>
+          <t>Betty Bossi Sous vide Karotten</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-pflanzlicher-speck-tranchen/p/6816542</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
         </is>
       </c>
       <c r="D350" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E350" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F350" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G350" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>7.44/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I350" t="inlineStr">
@@ -24468,7 +24468,7 @@
       </c>
       <c r="J350" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K350" t="inlineStr">
@@ -24478,12 +24478,12 @@
       </c>
       <c r="L350" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M350" t="inlineStr">
         <is>
-          <t>Outlawz Food pflanzlicher Speck Tranchen 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N350" t="inlineStr">
@@ -24493,45 +24493,45 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6325173</t>
+          <t>6816542</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
+          <t>Outlawz Food pflanzlicher Speck Tranchen</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-pflanzlicher-speck-tranchen/p/6816542</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E351" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Vivera</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>7.44/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -24541,7 +24541,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>7.44</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -24551,12 +24551,12 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Vivera Vissticks wie Fischstäbchen vegan - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Outlawz Food pflanzlicher Speck Tranchen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
@@ -24566,100 +24566,104 @@
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6509322</t>
+          <t>6325173</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Prix Garantie Baby Salat 8 Stück</t>
+          <t>Vivera Vissticks wie Fischstäbchen vegan</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/prix-garantie-baby-salat-8-stueck/p/6509322</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/vivera-vissticks-wie-fischstaebchen-vegan/p/6325173</t>
         </is>
       </c>
       <c r="D352" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E352" t="n">
         <v>4.5</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>0.58/1ST</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Prix Garantie Baby Salat 8 Stück 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N352" t="inlineStr"/>
+          <t>Vivera Vissticks wie Fischstäbchen vegan - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N352" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6862503</t>
+          <t>6509322</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten</t>
+          <t>Prix Garantie Baby Salat 8 Stück</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/ganze-salate/prix-garantie-baby-salat-8-stueck/p/6509322</t>
         </is>
       </c>
       <c r="D353" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E353" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F353" t="inlineStr">
         <is>
@@ -24668,68 +24672,64 @@
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.58/1ST</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L353" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'ganze-salate']</t>
         </is>
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N353" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Prix Garantie Baby Salat 8 Stück 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6999612</t>
+          <t>6875235</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat</t>
+          <t>Délicorn Würstli vegetarisch</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E354" t="n">
         <v>4.5</v>
@@ -24741,12 +24741,12 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>2.25/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -24756,7 +24756,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -24766,43 +24766,43 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
+          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegetarian']</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6875235</t>
+          <t>6999612</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch</t>
+          <t>Betty Bossi Poulet Currysalat</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-wuerstli-vegetarisch/p/6875235</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E355" t="n">
         <v>4.5</v>
@@ -24814,12 +24814,12 @@
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>2.25/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -24829,7 +24829,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -24839,22 +24839,22 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Délicorn Würstli vegetarisch 4.50 Schweizer Franken</t>
+          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N355" t="inlineStr">
         <is>
-          <t>['chilled', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24923,7 +24923,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -24996,7 +24996,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25065,7 +25065,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25138,7 +25138,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25211,7 +25211,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25276,7 +25276,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25349,7 +25349,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25422,7 +25422,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25495,7 +25495,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25568,7 +25568,7 @@
       </c>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -25641,45 +25641,43 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4158362</t>
+          <t>6862490</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet</t>
+          <t>Betty Bossi Sous vide Erbsen &amp;amp; Rüebli</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
-        </is>
-      </c>
-      <c r="D367" t="n">
-        <v>4</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-erbsen-rueebli/p/6862490</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr"/>
       <c r="E367" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
-          <t>Seeberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.32/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -25689,7 +25687,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -25699,54 +25697,60 @@
       </c>
       <c r="L367" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Seeberger Soft Datteln getrocknet 20% ab 2 Aktion 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N367" t="inlineStr"/>
+          <t>Betty Bossi Sous vide Erbsen &amp;amp; Rüebli 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N367" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6862490</t>
+          <t>6469381</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Erbsen &amp;amp; Rüebli</t>
+          <t>Garden Gourmet Sensational vegan Burger</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-erbsen-rueebli/p/6862490</t>
-        </is>
-      </c>
-      <c r="D368" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-sensational-vegan-burger/p/6469381</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>74</v>
+      </c>
       <c r="E368" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.32/100g</t>
+          <t>2.88/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -25756,7 +25760,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -25766,12 +25770,12 @@
       </c>
       <c r="L368" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
         </is>
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Erbsen &amp;amp; Rüebli 3.95 Schweizer Franken</t>
+          <t>Garden Gourmet Sensational vegan Burger 25% ab 2 Aktion 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N368" t="inlineStr">
@@ -25781,104 +25785,100 @@
       </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6469381</t>
+          <t>6058078</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational vegan Burger</t>
+          <t>Naturaplan Bio Ünique Gemüse Mix</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/burger-hackbaellchen/garden-gourmet-sensational-vegan-burger/p/6469381</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/naturaplan-bio-uenique-gemuese-mix/p/6058078</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="E369" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>2.88/100g</t>
+          <t>2.95/1ST</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'burger-hackbaellchen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational vegan Burger 25% ab 2 Aktion 6.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Ünique Gemüse Mix 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>6058078</t>
+          <t>6862502</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ünique Gemüse Mix</t>
+          <t>Betty Bossi Sous vide Kartoffeln</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/naturaplan-bio-uenique-gemuese-mix/p/6058078</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/betty-bossi-sous-vide-kartoffeln/p/6862502</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E370" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
@@ -25887,81 +25887,85 @@
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>2.95/1ST</t>
+          <t>0.68/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L370" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Ünique Gemüse Mix 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N370" t="inlineStr"/>
+          <t>Betty Bossi Sous vide Kartoffeln 2.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>6862502</t>
+          <t>4158362</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kartoffeln</t>
+          <t>Seeberger Soft Datteln getrocknet</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/betty-bossi-sous-vide-kartoffeln/p/6862502</t>
+          <t>/de/lebensmittel/suesses-snacks/chips-snacks/trockenfruechte-nuesse/doerrfruechte/seeberger-soft-datteln-getrocknet/p/4158362</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E371" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Seeberger</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>0.68/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -25971,7 +25975,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -25981,22 +25985,18 @@
       </c>
       <c r="L371" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'chips-snacks', 'trockenfruechte-nuesse', 'doerrfruechte']</t>
         </is>
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Kartoffeln 2.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Seeberger Soft Datteln getrocknet 20% ab 2 Aktion 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26063,7 +26063,7 @@
       <c r="N372" t="inlineStr"/>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26136,7 +26136,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26203,7 +26203,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26276,7 +26276,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26349,7 +26349,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26422,7 +26422,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26489,7 +26489,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26560,7 +26560,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26631,7 +26631,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26704,7 +26704,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26769,7 +26769,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -26840,104 +26840,96 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>6638714</t>
+          <t>3090915</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Délicorn Curry Balls</t>
+          <t>Spargeln grün</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-curry-balls/p/6638714</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen/p/3090915</t>
         </is>
       </c>
       <c r="D384" t="n">
+        <v>38</v>
+      </c>
+      <c r="E384" t="n">
         <v>4</v>
       </c>
-      <c r="E384" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F384" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F384" t="inlineStr"/>
       <c r="G384" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>3.48/100g</t>
+          <t>9.95/1kg</t>
         </is>
       </c>
       <c r="I384" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="K384" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L384" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M384" t="inlineStr">
         <is>
-          <t>Délicorn Curry Balls 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N384" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Spargeln grün 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N384" t="inlineStr"/>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>6986288</t>
+          <t>6638714</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln</t>
+          <t>Délicorn Curry Balls</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-kichererbsen-suesskartoffeln/p/6986288</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/delicorn-curry-balls/p/6638714</t>
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E385" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F385" t="inlineStr">
         <is>
@@ -26946,12 +26938,12 @@
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>3.48/100g</t>
         </is>
       </c>
       <c r="I385" t="inlineStr">
@@ -26961,7 +26953,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>3.48</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -26971,12 +26963,12 @@
       </c>
       <c r="L385" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M385" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln 4.80 Schweizer Franken</t>
+          <t>Délicorn Curry Balls 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N385" t="inlineStr">
@@ -26986,45 +26978,45 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6629801</t>
+          <t>6986288</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitöner</t>
+          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-seitoener/p/6629801</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/naturaplan-bio-kichererbsen-suesskartoffeln/p/6986288</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>3.86/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27034,7 +27026,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27044,12 +27036,12 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Outlawz Food Seitöner 6.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Kichererbsen &amp;amp; Süsskartoffeln 4.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N386" t="inlineStr">
@@ -27059,41 +27051,45 @@
       </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>6754922</t>
+          <t>6629801</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree</t>
+          <t>Outlawz Food Seitöner</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/outlawz-food-seitoener/p/6629801</t>
         </is>
       </c>
       <c r="D387" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E387" t="n">
-        <v>3</v>
-      </c>
-      <c r="F387" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>OUTLAWZ Food</t>
+        </is>
+      </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>3.86/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27103,7 +27099,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27113,111 +27109,115 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr"/>
+          <t>Outlawz Food Seitöner 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3090915</t>
+          <t>6754922</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Spargeln grün</t>
+          <t>Snack Jungchicoree</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-gruen/p/3090915</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/snack-jungchicoree/p/6754922</t>
         </is>
       </c>
       <c r="D388" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E388" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>9.95/1kg</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Spargeln grün 9.95 Schweizer Franken</t>
+          <t>Snack Jungchicoree 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6289137</t>
+          <t>6594018</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Rettich schwarz ca. 1kg</t>
+          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/pro-specie-rara-rettich-schwarz-ca/p/6289137</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-mexican-style-vegan/p/6594018</t>
         </is>
       </c>
       <c r="D389" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E389" t="n">
         <v>4</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
@@ -27227,141 +27227,145 @@
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Rettich schwarz ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr"/>
+          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan 25% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>7102073</t>
+          <t>6289137</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Baumnüsse</t>
+          <t>Pro Specie Rara Rettich schwarz ca. 1kg</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse/p/7102073</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/pro-specie-rara-rettich-schwarz-ca/p/6289137</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E390" t="n">
-        <v>3</v>
-      </c>
-      <c r="F390" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>0.40/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Baumnüsse 1.00 Schweizer Franken</t>
+          <t>Pro Specie Rara Rettich schwarz ca. 1kg 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>6594018</t>
+          <t>7102073</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan</t>
+          <t>Baumnüsse</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/garden-gourmet-sensational-bratwurst-mexican-style-vegan/p/6594018</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/baumnuesse/p/7102073</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E391" t="n">
-        <v>4</v>
-      </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>Garden Gourmet</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F391" t="inlineStr"/>
       <c r="G391" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>0.40/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -27371,7 +27375,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -27381,22 +27385,18 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Garden Gourmet Sensational Bratwurst Mexican Style vegan 25% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Baumnüsse 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -27465,7 +27465,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -27518,7 +27518,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -27591,149 +27591,149 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6073294</t>
+          <t>6774028</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box</t>
+          <t>festivo geräucherte Stick Vegan Chili</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
         </is>
       </c>
       <c r="D395" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E395" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>6.33/1kg</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>6.33</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L395" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N395" t="inlineStr"/>
+          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N395" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>6774028</t>
+          <t>6073294</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili</t>
+          <t>Naturaplan Bio Kitchen-Classics Box</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherte-stick-vegan-chili/p/6774028</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-kitchen-classics-box/p/6073294</t>
         </is>
       </c>
       <c r="D396" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E396" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>6.33/1kg</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>6.33</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>festivo geräucherte Stick Vegan Chili 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N396" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Kitchen-Classics Box 19.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -27802,7 +27802,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -27875,7 +27875,7 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28021,7 +28021,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28094,7 +28094,7 @@
       </c>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28159,7 +28159,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28226,7 +28226,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28299,33 +28299,37 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>3091191</t>
+          <t>6704473</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Maniok ca. 1kg</t>
+          <t>Yolo Filets</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/maniok/maniok-ca/p/3091191</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
         </is>
       </c>
       <c r="D405" t="n">
+        <v>11</v>
+      </c>
+      <c r="E405" t="n">
         <v>5</v>
       </c>
-      <c r="E405" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="F405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>Yolo</t>
+        </is>
+      </c>
       <c r="G405" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -28333,68 +28337,68 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>5.95/1kg</t>
+          <t>3.31/100g</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'maniok']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Maniok ca. 1kg 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr"/>
+          <t>Yolo Filets 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>6704473</t>
+          <t>3091191</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Yolo Filets</t>
+          <t>Maniok ca. 1kg</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-filets/p/6704473</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/maniok/maniok-ca/p/3091191</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E406" t="n">
-        <v>5</v>
-      </c>
-      <c r="F406" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -28402,80 +28406,76 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>3.31/100g</t>
+          <t>5.95/1kg</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'maniok']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Yolo Filets 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N406" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Maniok ca. 1kg 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>3090601</t>
+          <t>7038142</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
+          <t>Garden Gourmet Crispy Filet</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E407" t="n">
         <v>4.5</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Garden Gourmet</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>0.76/100g</t>
+          <t>3.13/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -28485,7 +28485,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -28495,162 +28495,162 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
+          <t>Garden Gourmet Crispy Filet 25% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N407" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>7038142</t>
+          <t>7138276</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet</t>
+          <t>Bio Mandarinen ca. 1kg</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/garden-gourmet-crispy-filet/p/7038142</t>
-        </is>
-      </c>
-      <c r="D408" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/bio-mandarinen-ca/p/7138276</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr"/>
       <c r="E408" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>Garden Gourmet</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>3.13/100g</t>
+          <t>3.95/1kg</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>Garden Gourmet Crispy Filet 25% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N408" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Bio Mandarinen ca. 1kg 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>7138276</t>
+          <t>3090601</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Bio Mandarinen ca. 1kg</t>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/bio-mandarinen-ca/p/7138276</t>
-        </is>
-      </c>
-      <c r="D409" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-swiss-mix-sauerkraut-sauerrueben/p/3090601</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>10</v>
+      </c>
       <c r="E409" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>3.95/1kg</t>
+          <t>0.76/100g</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="K409" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L409" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M409" t="inlineStr">
         <is>
-          <t>Bio Mandarinen ca. 1kg 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N409" t="inlineStr"/>
+          <t>Schöni Swiss Mix Sauerkraut &amp;amp; Sauerrüben 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N409" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28719,7 +28719,7 @@
       <c r="N410" t="inlineStr"/>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28792,7 +28792,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28857,7 +28857,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28930,7 +28930,7 @@
       </c>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -28999,7 +28999,7 @@
       <c r="N414" t="inlineStr"/>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29072,7 +29072,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29143,7 +29143,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29196,7 +29196,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29269,7 +29269,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29342,7 +29342,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29476,7 +29476,7 @@
       <c r="N421" t="inlineStr"/>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29549,7 +29549,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29622,7 +29622,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29695,7 +29695,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29764,7 +29764,7 @@
       <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29833,7 +29833,7 @@
       <c r="N426" t="inlineStr"/>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29902,7 +29902,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -29975,45 +29975,45 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6722900</t>
+          <t>7019070</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative</t>
+          <t>Vivera veganes Lachsfilet 2x100g</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E429" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Vivera</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>2.98/100g</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
@@ -30023,7 +30023,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -30033,12 +30033,12 @@
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
+          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N429" t="inlineStr">
@@ -30048,37 +30048,33 @@
       </c>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>7019070</t>
+          <t>6081655</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g</t>
+          <t>Haselnüsse extra</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/pflanzlicher-fischersatz/vivera-veganes-lachsfilet-2x100g/p/7019070</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/haselnuesse-extra/p/6081655</t>
         </is>
       </c>
       <c r="D430" t="n">
+        <v>2</v>
+      </c>
+      <c r="E430" t="n">
         <v>5</v>
       </c>
-      <c r="E430" t="n">
-        <v>4</v>
-      </c>
-      <c r="F430" t="inlineStr">
-        <is>
-          <t>Vivera</t>
-        </is>
-      </c>
+      <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
           <t>5.95</t>
@@ -30086,7 +30082,7 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>2.98/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
@@ -30096,7 +30092,7 @@
       </c>
       <c r="J430" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K430" t="inlineStr">
@@ -30106,56 +30102,56 @@
       </c>
       <c r="L430" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'pflanzlicher-fischersatz']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M430" t="inlineStr">
         <is>
-          <t>Vivera veganes Lachsfilet 2x100g 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N430" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Haselnüsse extra 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N430" t="inlineStr"/>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>6081655</t>
+          <t>6722900</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Haselnüsse extra</t>
+          <t>The Green Mountain plant-based Bratwurstalternative</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/haselnuesse-extra/p/6081655</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
         </is>
       </c>
       <c r="D431" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E431" t="n">
-        <v>5</v>
-      </c>
-      <c r="F431" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F431" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
@@ -30165,7 +30161,7 @@
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -30175,18 +30171,22 @@
       </c>
       <c r="L431" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M431" t="inlineStr">
         <is>
-          <t>Haselnüsse extra 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N431" t="inlineStr"/>
+          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N431" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30259,7 +30259,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30332,7 +30332,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30405,7 +30405,7 @@
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30478,7 +30478,7 @@
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30551,7 +30551,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30624,7 +30624,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30697,7 +30697,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -30754,39 +30754,45 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>7072082</t>
+          <t>4482099</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Clementinen</t>
+          <t>Mönchsbart</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen/p/7072082</t>
-        </is>
-      </c>
-      <c r="D440" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/moenchsbart/p/4482099</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>8</v>
+      </c>
       <c r="E440" t="n">
-        <v>0</v>
-      </c>
-      <c r="F440" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F440" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>0.13/100g</t>
+          <t>1.47/100g</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
@@ -30796,7 +30802,7 @@
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>1.47</t>
         </is>
       </c>
       <c r="K440" t="inlineStr">
@@ -30806,56 +30812,50 @@
       </c>
       <c r="L440" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M440" t="inlineStr">
         <is>
-          <t>Clementinen Superpreis Aktion 1.00 Schweizer Franken</t>
+          <t>Mönchsbart 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N440" t="inlineStr"/>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>6739951</t>
+          <t>7072082</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces</t>
+          <t>Clementinen</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
-        </is>
-      </c>
-      <c r="D441" t="n">
-        <v>6</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/clementinen/p/7072082</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr"/>
       <c r="E441" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>Yolo</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>0.13/100g</t>
         </is>
       </c>
       <c r="I441" t="inlineStr">
@@ -30865,7 +30865,7 @@
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="K441" t="inlineStr">
@@ -30875,60 +30875,56 @@
       </c>
       <c r="L441" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M441" t="inlineStr">
         <is>
-          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N441" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Clementinen Superpreis Aktion 1.00 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>4482099</t>
+          <t>6739951</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Mönchsbart</t>
+          <t>Yolo marinated Pieces</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/moenchsbart/p/4482099</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/yolo-marinated-pieces/p/6739951</t>
         </is>
       </c>
       <c r="D442" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E442" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>1.47/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I442" t="inlineStr">
@@ -30938,7 +30934,7 @@
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K442" t="inlineStr">
@@ -30948,18 +30944,22 @@
       </c>
       <c r="L442" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M442" t="inlineStr">
         <is>
-          <t>Mönchsbart 4.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N442" t="inlineStr"/>
+          <t>Yolo marinated Pieces 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N442" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31024,7 +31024,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31091,7 +31091,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31164,7 +31164,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31237,143 +31237,143 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>3090911</t>
+          <t>7027730</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Spargeln weiss ca. 1kg</t>
+          <t>The Green Mountain plant-based Curry Geschnetzeltes</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-weiss-ca/p/3090911</t>
-        </is>
-      </c>
-      <c r="D447" t="n">
-        <v>57</v>
-      </c>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-curry-geschnetzeltes/p/7027730</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr"/>
       <c r="E447" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>The GREEN MOUNTAIN</t>
+        </is>
+      </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>9.95/1kg</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K447" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L447" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M447" t="inlineStr">
         <is>
-          <t>Spargeln weiss ca. 1kg 9.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N447" t="inlineStr"/>
+          <t>The Green Mountain plant-based Curry Geschnetzeltes 7.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N447" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>7027730</t>
+          <t>3090911</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Curry Geschnetzeltes</t>
+          <t>Spargeln weiss ca. 1kg</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-curry-geschnetzeltes/p/7027730</t>
-        </is>
-      </c>
-      <c r="D448" t="inlineStr"/>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargeln-weiss-ca/p/3090911</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>57</v>
+      </c>
       <c r="E448" t="n">
-        <v>0</v>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>The GREEN MOUNTAIN</t>
-        </is>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>9.95/1kg</t>
         </is>
       </c>
       <c r="I448" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="K448" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L448" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M448" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Curry Geschnetzeltes 7.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N448" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Spargeln weiss ca. 1kg 9.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N448" t="inlineStr"/>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31446,7 +31446,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31519,7 +31519,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31592,7 +31592,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31665,7 +31665,7 @@
       </c>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31738,31 +31738,31 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>6073300</t>
+          <t>4309899</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box</t>
+          <t>Spargelspitzen grün 300g</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-gruen/p/4309899</t>
         </is>
       </c>
       <c r="D454" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E454" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F454" t="inlineStr">
         <is>
@@ -31771,67 +31771,67 @@
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>8.25/1kg</t>
+          <t>2.65/100g</t>
         </is>
       </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>8.25</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="K454" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L454" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
         </is>
       </c>
       <c r="M454" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
+          <t>Spargelspitzen grün 300g 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>4309899</t>
+          <t>6073300</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Spargelspitzen grün 300g</t>
+          <t>Pro Specie Rara Explorer Box</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/spargeln/spargelspitzen-gruen/p/4309899</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/pro-specie-rara-explorer-box/p/6073300</t>
         </is>
       </c>
       <c r="D455" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E455" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -31840,43 +31840,43 @@
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>16.50</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>2.65/100g</t>
+          <t>8.25/1kg</t>
         </is>
       </c>
       <c r="I455" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J455" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>8.25</t>
         </is>
       </c>
       <c r="K455" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L455" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'spargeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M455" t="inlineStr">
         <is>
-          <t>Spargelspitzen grün 300g 7.95 Schweizer Franken</t>
+          <t>Pro Specie Rara Explorer Box 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -31947,7 +31947,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32014,7 +32014,7 @@
       <c r="N457" t="inlineStr"/>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32087,7 +32087,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32152,7 +32152,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32225,7 +32225,7 @@
       </c>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32298,7 +32298,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32367,7 +32367,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32434,7 +32434,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32505,7 +32505,7 @@
       </c>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32570,7 +32570,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32641,7 +32641,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32714,7 +32714,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32783,7 +32783,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32854,7 +32854,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32925,7 +32925,7 @@
       </c>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
@@ -32996,7 +32996,7 @@
       </c>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-02-17 12:59:12</t>
+          <t>2023-02-17 20:50:50</t>
         </is>
       </c>
     </row>
